--- a/Execution-Data.xlsx
+++ b/Execution-Data.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssultanabarlaskar\Documents\Java COE\STLC-Tool\STLC-Prototype\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\artifacts\jsonFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6756" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6756" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="12" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$I$9</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Test: Test Name</t>
   </si>
@@ -43,25 +43,16 @@
     <t>Exec Date</t>
   </si>
   <si>
-    <t>Executed Tester</t>
-  </si>
-  <si>
     <t>Execution Comments</t>
   </si>
   <si>
-    <t>Test: Division1</t>
-  </si>
-  <si>
-    <t>Test: Division2</t>
-  </si>
-  <si>
-    <t>Test: Division3</t>
-  </si>
-  <si>
     <t>Please ensure the number of tiers mentioned for the test cycle matches the number of test divisions in xls</t>
   </si>
   <si>
     <t>Columns A-H are mandatory</t>
+  </si>
+  <si>
+    <t>Tier</t>
   </si>
 </sst>
 </file>
@@ -213,10 +204,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -561,20 +552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
+    <row r="1" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -588,16 +579,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
     <col min="2" max="3" width="13.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
@@ -605,20 +596,19 @@
     <col min="7" max="7" width="18.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.21875" style="2"/>
+    <col min="10" max="10" width="26.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -641,11 +631,8 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -656,9 +643,8 @@
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -669,9 +655,8 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -682,9 +667,8 @@
       <c r="H4" s="8"/>
       <c r="I4" s="10"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -695,9 +679,8 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -708,9 +691,8 @@
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -721,9 +703,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -733,10 +714,9 @@
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -747,10 +727,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J9"/>
+  <autoFilter ref="A1:I9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
